--- a/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
+++ b/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
@@ -451,659 +451,889 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9632</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3347</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>008635</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>华安科技创新混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>92.86</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>4.44</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>009789</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>富安达科技创新混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>90.48</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>6.83</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>040025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安科技动力混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001072</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安智能装备主题股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002745</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>北信瑞丰丰利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>040007</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>89.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519674</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河创新成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512330</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方中证500信息技术指数ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>99.47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001113</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004344</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方大数据100指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>165522</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>710001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富安达优势成长混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002745</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>北信瑞丰丰利混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>39.23</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006440</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003956</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方现代教育股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005117</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005118</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007872</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金信稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006122</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华安低碳生活混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005630</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华安研究精选混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>89.80</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1113,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,15 +1364,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>519674</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>银河创新成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>142.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.2003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005117</t>
+          <t>001071</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合A</t>
+          <t>华安媒体互联网混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>44.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005118</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合C</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>49.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004222</t>
+          <t>260101</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金信民旺债券A</t>
+          <t>景顺长城优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48.26</t>
+          <t>50.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5609</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004402</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金信民旺债券C</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>48.26</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4558</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>260101</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城优选混合</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>76.66</t>
+          <t>31.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0608</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0506</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009789</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富安达科技创新混合</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006128</t>
+          <t>710001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银河和美生活主题混合</t>
+          <t>富安达优势成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>310358</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>申万菱信新经济混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6888</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>340008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>兴全有机增长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>27.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6094</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1472,15 +1822,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>91.72</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>5.11</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>310358</t>
+          <t>007460</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>申万菱信新经济混合</t>
+          <t>华安成长创新混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006435</t>
+          <t>006128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城创新成长混合</t>
+          <t>银河和美生活主题混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3145</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>340008</t>
+          <t>010746</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>兴全有机增长混合</t>
+          <t>富安达长三角区域主题混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006692</t>
+          <t>512330</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金信消费升级股票A</t>
+          <t>南方中证500信息技术指数ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006693</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金信消费升级股票C</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>006692</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>金信消费升级股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001071</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华安媒体互联网混合</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>009789</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>富安达科技创新混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>007872</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华安成长创新混合</t>
+          <t>金信稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>84.04</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>512330</t>
+          <t>005117</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>南方中证500信息技术指数ETF</t>
+          <t>金信价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>519674</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>银河创新成长混合</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001975</t>
+          <t>004222</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>景顺长城环保优势股票</t>
+          <t>金信民旺债券A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>48.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1864,15 +2354,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>60.13</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>3.18</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1892,15 +2392,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>89.92</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>7.74</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>710001</t>
+          <t>004402</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>富安达优势成长混合</t>
+          <t>金信民旺债券C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
+          <t>48.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>006693</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
+          <t>金信消费升级股票C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>005118</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>金信价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
+++ b/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2531,4 +2532,5722 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.2029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>162.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.0863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.5791</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>115.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>112.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6380</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2446</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>391.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7032</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6873</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4677</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3759</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3343</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>54.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8482</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7055</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6210</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3158</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1303</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1261</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9123</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8765</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7652</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7497</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7403</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6853</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6651</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6610</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5976</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5919</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5705</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>46.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4666</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4651</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4368</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4299</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4092</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>61.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>71.05</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
+++ b/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8250,4 +8251,5336 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>158.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.6371</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>164.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.2374</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7340</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6511</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.5740</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>475.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3737</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5969</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4859</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0964</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9761</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7391</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>51.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6502</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6316</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3001</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1316</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8572</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8504</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8432</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8392</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8183</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7592</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7423</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7124</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7001</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6200</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5817</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4456</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4035</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3575</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>40.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
+++ b/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13562,7 +13563,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
           <t>91.03</t>
@@ -13578,6 +13578,106 @@
       </c>
       <c r="H140" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>139</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>149</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.49</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
+++ b/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13591,7 +13592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13602,17 +13603,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13622,14 +13643,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>139</v>
-      </c>
-      <c r="D2" t="n">
-        <v>90.09</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.4967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -13638,14 +13681,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>149</v>
-      </c>
-      <c r="D3" t="n">
-        <v>90.38</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -13654,14 +13719,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.69</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>175.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.1790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -13670,13 +13757,3265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.9304</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.1033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.1682</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8254</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.5555</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.5372</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>66.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.5276</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>118.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1903</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.0273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4828</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1968</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>49.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7173</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>46.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4221</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0869</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8670</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8350</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8046</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7252</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7248</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6993</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6866</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001126</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6398</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009998</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根慧见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5035</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4363</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3682</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D2" t="n">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>149</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
+++ b/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16914,7 +16915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16925,17 +16926,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16945,14 +16966,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>86</v>
-      </c>
-      <c r="D2" t="n">
-        <v>87.77</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.3552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -16961,14 +17004,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>139</v>
-      </c>
-      <c r="D3" t="n">
-        <v>90.09</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>175.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.0916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -16977,14 +17042,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>149</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90.38</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.6002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -16993,14 +17080,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.69</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -17009,13 +17118,4117 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6883</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6443</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>115.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5606</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4998</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.4778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3491</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.9496</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5394</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4470</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7424</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6251</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1526</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0167</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9539</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9237</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8351</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6920</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6500</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6496</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5959</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5892</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5659</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5270</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4823</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3238</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D2" t="n">
+        <v>81.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>139</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>149</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
+++ b/数据整理/stocks/A股/上证主板/600460-士兰微.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21111,7 +21112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21122,17 +21123,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -21142,14 +21163,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>109</v>
-      </c>
-      <c r="D2" t="n">
-        <v>81.45</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.8603</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -21158,14 +21201,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>86</v>
-      </c>
-      <c r="D3" t="n">
-        <v>87.77</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>194.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8295</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -21174,14 +21239,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>139</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90.09</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.5875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -21190,14 +21277,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>149</v>
-      </c>
-      <c r="D5" t="n">
-        <v>90.38</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7599</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -21206,14 +21315,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27.69</v>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2366</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -21222,13 +21353,4095 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>125.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8970</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>109.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7596</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.7136</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>62.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.6379</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>52.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.5224</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8986</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5094</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4355</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3863</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2373</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0392</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0269</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9338</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8359</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7915</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6964</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6958</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6734</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6694</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5308</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5229</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4531</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2341</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004750</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004751</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83.26000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>81.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>86</v>
+      </c>
+      <c r="D4" t="n">
+        <v>87.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>149</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>22</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.49</v>
       </c>
     </row>
